--- a/example/mp_reports_UKP_25.05.2018-16.19.50.60_50_items/uncorreled_50.xlsx
+++ b/example/mp_reports_UKP_25.05.2018-16.19.50.60_50_items/uncorreled_50.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Elapsed Time (ms)</t>
   </si>
@@ -86,9 +86,6 @@
     <t>GA deviation</t>
   </si>
   <si>
-    <t xml:space="preserve"> max deviation</t>
-  </si>
-  <si>
     <t>Probability, when EDUK is efficient and periodicity is achieved</t>
   </si>
   <si>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>Probability, when BB is efficient and upper bound is not achieved</t>
+  </si>
+  <si>
+    <t>GA avg deviation</t>
+  </si>
+  <si>
+    <t>GA max deviation</t>
   </si>
 </sst>
 </file>
@@ -423,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,25 +2458,29 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="2">
+        <f>AVERAGE(S3:S32)</f>
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
         <f>MAX(S3:S32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,10 +2495,10 @@
     </row>
     <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,5 +2513,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>